--- a/831MarketingAnalytics/Project/831MarketingProject/output/engagement_model_data.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/engagement_model_data.xlsx
@@ -29421,7 +29421,7 @@
         <v>0</v>
       </c>
       <c r="C1115" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1115" t="n">
         <v>676</v>
@@ -29447,7 +29447,7 @@
         <v>0</v>
       </c>
       <c r="C1116" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1116" t="n">
         <v>690</v>
@@ -29473,7 +29473,7 @@
         <v>0</v>
       </c>
       <c r="C1117" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1117" t="n">
         <v>690</v>
@@ -29499,7 +29499,7 @@
         <v>0</v>
       </c>
       <c r="C1118" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1118" t="n">
         <v>690</v>
@@ -29525,7 +29525,7 @@
         <v>0</v>
       </c>
       <c r="C1119" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1119" t="n">
         <v>690</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="C1120" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1120" t="n">
         <v>695</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="C1121" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1121" t="n">
         <v>695</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="C1122" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1122" t="n">
         <v>695</v>
@@ -29629,7 +29629,7 @@
         <v>0</v>
       </c>
       <c r="C1123" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1123" t="n">
         <v>695</v>
@@ -29655,7 +29655,7 @@
         <v>0</v>
       </c>
       <c r="C1124" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1124" t="n">
         <v>676</v>
@@ -29681,7 +29681,7 @@
         <v>0</v>
       </c>
       <c r="C1125" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1125" t="n">
         <v>654</v>
@@ -29707,7 +29707,7 @@
         <v>0</v>
       </c>
       <c r="C1126" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1126" t="n">
         <v>619</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="C1127" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1127" t="n">
         <v>594</v>
@@ -29759,7 +29759,7 @@
         <v>0</v>
       </c>
       <c r="C1128" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1128" t="n">
         <v>584</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="C1157" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1157" t="n">
         <v>644</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C1158" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1158" t="n">
         <v>624</v>
@@ -30565,7 +30565,7 @@
         <v>0</v>
       </c>
       <c r="C1159" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1159" t="n">
         <v>656</v>
@@ -30591,7 +30591,7 @@
         <v>0</v>
       </c>
       <c r="C1160" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1160" t="n">
         <v>639</v>
@@ -30617,7 +30617,7 @@
         <v>0</v>
       </c>
       <c r="C1161" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1161" t="n">
         <v>637</v>
@@ -30643,7 +30643,7 @@
         <v>0</v>
       </c>
       <c r="C1162" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1162" t="n">
         <v>637</v>
@@ -30669,7 +30669,7 @@
         <v>0</v>
       </c>
       <c r="C1163" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1163" t="n">
         <v>639</v>
@@ -30695,7 +30695,7 @@
         <v>0</v>
       </c>
       <c r="C1164" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1164" t="n">
         <v>633</v>
@@ -30721,7 +30721,7 @@
         <v>0</v>
       </c>
       <c r="C1165" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1165" t="n">
         <v>656</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="C1166" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1166" t="n">
         <v>633</v>
@@ -30773,7 +30773,7 @@
         <v>0</v>
       </c>
       <c r="C1167" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1167" t="n">
         <v>609</v>
@@ -30799,7 +30799,7 @@
         <v>0</v>
       </c>
       <c r="C1168" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1168" t="n">
         <v>602</v>
@@ -30825,7 +30825,7 @@
         <v>0</v>
       </c>
       <c r="C1169" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1169" t="n">
         <v>602</v>
@@ -30851,7 +30851,7 @@
         <v>0</v>
       </c>
       <c r="C1170" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1170" t="n">
         <v>639</v>
@@ -34205,7 +34205,7 @@
         <v>0</v>
       </c>
       <c r="C1299" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1299" t="n">
         <v>642</v>
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="C1300" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1300" t="n">
         <v>647</v>
@@ -34257,7 +34257,7 @@
         <v>0</v>
       </c>
       <c r="C1301" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1301" t="n">
         <v>652</v>
@@ -34283,7 +34283,7 @@
         <v>0</v>
       </c>
       <c r="C1302" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1302" t="n">
         <v>682</v>
@@ -34309,7 +34309,7 @@
         <v>0</v>
       </c>
       <c r="C1303" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1303" t="n">
         <v>674</v>
@@ -34335,7 +34335,7 @@
         <v>0</v>
       </c>
       <c r="C1304" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1304" t="n">
         <v>636</v>
@@ -34361,7 +34361,7 @@
         <v>0</v>
       </c>
       <c r="C1305" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1305" t="n">
         <v>707</v>
@@ -34387,7 +34387,7 @@
         <v>0</v>
       </c>
       <c r="C1306" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1306" t="n">
         <v>723</v>
@@ -34413,7 +34413,7 @@
         <v>0</v>
       </c>
       <c r="C1307" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1307" t="n">
         <v>741</v>
@@ -34439,7 +34439,7 @@
         <v>0</v>
       </c>
       <c r="C1308" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1308" t="n">
         <v>741</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="C1321" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1321" t="n">
         <v>626</v>
@@ -34803,7 +34803,7 @@
         <v>0</v>
       </c>
       <c r="C1322" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1322" t="n">
         <v>610</v>
@@ -34829,7 +34829,7 @@
         <v>0</v>
       </c>
       <c r="C1323" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1323" t="n">
         <v>622</v>
@@ -34855,7 +34855,7 @@
         <v>0</v>
       </c>
       <c r="C1324" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1324" t="n">
         <v>586</v>
@@ -34881,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="C1325" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1325" t="n">
         <v>572</v>
@@ -34907,7 +34907,7 @@
         <v>0</v>
       </c>
       <c r="C1326" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1326" t="n">
         <v>589</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="C1327" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1327" t="n">
         <v>580</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="C1328" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1328" t="n">
         <v>593</v>
@@ -34985,7 +34985,7 @@
         <v>0</v>
       </c>
       <c r="C1329" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1329" t="n">
         <v>606</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="C1330" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1330" t="n">
         <v>595</v>
@@ -35037,7 +35037,7 @@
         <v>0</v>
       </c>
       <c r="C1331" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D1331" t="n">
         <v>581</v>
@@ -36883,7 +36883,7 @@
         <v>0</v>
       </c>
       <c r="C1402" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1402" t="n">
         <v>659</v>
@@ -36909,7 +36909,7 @@
         <v>0</v>
       </c>
       <c r="C1403" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1403" t="n">
         <v>674</v>
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="C1404" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1404" t="n">
         <v>674</v>
@@ -36961,7 +36961,7 @@
         <v>0</v>
       </c>
       <c r="C1405" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1405" t="n">
         <v>656</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="C1406" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1406" t="n">
         <v>650</v>
@@ -37013,7 +37013,7 @@
         <v>0</v>
       </c>
       <c r="C1407" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1407" t="n">
         <v>653</v>
@@ -37039,7 +37039,7 @@
         <v>0</v>
       </c>
       <c r="C1408" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1408" t="n">
         <v>687</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="C1409" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1409" t="n">
         <v>682</v>
@@ -37091,7 +37091,7 @@
         <v>0</v>
       </c>
       <c r="C1410" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1410" t="n">
         <v>670</v>
@@ -37117,7 +37117,7 @@
         <v>0</v>
       </c>
       <c r="C1411" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1411" t="n">
         <v>678</v>
@@ -47075,7 +47075,7 @@
         <v>0</v>
       </c>
       <c r="C1794" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1794" t="n">
         <v>654</v>
@@ -47101,7 +47101,7 @@
         <v>0</v>
       </c>
       <c r="C1795" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1795" t="n">
         <v>654</v>
@@ -47127,7 +47127,7 @@
         <v>0</v>
       </c>
       <c r="C1796" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1796" t="n">
         <v>717</v>
@@ -47153,7 +47153,7 @@
         <v>0</v>
       </c>
       <c r="C1797" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1797" t="n">
         <v>545</v>
@@ -47179,7 +47179,7 @@
         <v>0</v>
       </c>
       <c r="C1798" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1798" t="n">
         <v>555</v>
@@ -47205,7 +47205,7 @@
         <v>0</v>
       </c>
       <c r="C1799" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1799" t="n">
         <v>555</v>
@@ -47231,7 +47231,7 @@
         <v>0</v>
       </c>
       <c r="C1800" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1800" t="n">
         <v>538</v>
@@ -47439,7 +47439,7 @@
         <v>0</v>
       </c>
       <c r="C1808" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1808" t="n">
         <v>654</v>
@@ -47465,7 +47465,7 @@
         <v>0</v>
       </c>
       <c r="C1809" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1809" t="n">
         <v>677</v>
@@ -47491,7 +47491,7 @@
         <v>0</v>
       </c>
       <c r="C1810" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1810" t="n">
         <v>700</v>
@@ -47517,7 +47517,7 @@
         <v>0</v>
       </c>
       <c r="C1811" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1811" t="n">
         <v>666</v>
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
       <c r="C1812" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D1812" t="n">
         <v>676</v>
@@ -49155,7 +49155,7 @@
         <v>0</v>
       </c>
       <c r="C1874" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1874" t="n">
         <v>688</v>
@@ -49181,7 +49181,7 @@
         <v>0</v>
       </c>
       <c r="C1875" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1875" t="n">
         <v>673</v>
@@ -49207,7 +49207,7 @@
         <v>0</v>
       </c>
       <c r="C1876" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1876" t="n">
         <v>596</v>
@@ -49233,7 +49233,7 @@
         <v>0</v>
       </c>
       <c r="C1877" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1877" t="n">
         <v>638</v>
@@ -49623,7 +49623,7 @@
         <v>0</v>
       </c>
       <c r="C1892" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1892" t="n">
         <v>635</v>
@@ -49649,7 +49649,7 @@
         <v>0</v>
       </c>
       <c r="C1893" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1893" t="n">
         <v>616</v>
@@ -49675,7 +49675,7 @@
         <v>0</v>
       </c>
       <c r="C1894" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1894" t="n">
         <v>603</v>
@@ -49701,7 +49701,7 @@
         <v>0</v>
       </c>
       <c r="C1895" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1895" t="n">
         <v>646</v>
@@ -49727,7 +49727,7 @@
         <v>0</v>
       </c>
       <c r="C1896" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1896" t="n">
         <v>696</v>
@@ -49753,7 +49753,7 @@
         <v>0</v>
       </c>
       <c r="C1897" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1897" t="n">
         <v>667</v>
@@ -51807,7 +51807,7 @@
         <v>0</v>
       </c>
       <c r="C1976" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1976" t="n">
         <v>614</v>
@@ -51833,7 +51833,7 @@
         <v>0</v>
       </c>
       <c r="C1977" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1977" t="n">
         <v>569</v>
@@ -51859,7 +51859,7 @@
         <v>0</v>
       </c>
       <c r="C1978" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1978" t="n">
         <v>548</v>
@@ -51885,7 +51885,7 @@
         <v>0</v>
       </c>
       <c r="C1979" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1979" t="n">
         <v>553</v>
@@ -51911,7 +51911,7 @@
         <v>0</v>
       </c>
       <c r="C1980" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1980" t="n">
         <v>557</v>
@@ -51937,7 +51937,7 @@
         <v>0</v>
       </c>
       <c r="C1981" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D1981" t="n">
         <v>569</v>
@@ -52067,7 +52067,7 @@
         <v>0</v>
       </c>
       <c r="C1986" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1986" t="n">
         <v>698</v>
@@ -52093,7 +52093,7 @@
         <v>0</v>
       </c>
       <c r="C1987" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1987" t="n">
         <v>624</v>
@@ -52119,7 +52119,7 @@
         <v>0</v>
       </c>
       <c r="C1988" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1988" t="n">
         <v>631</v>
@@ -52145,7 +52145,7 @@
         <v>0</v>
       </c>
       <c r="C1989" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1989" t="n">
         <v>623</v>
@@ -52171,7 +52171,7 @@
         <v>0</v>
       </c>
       <c r="C1990" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1990" t="n">
         <v>614</v>
@@ -52197,7 +52197,7 @@
         <v>0</v>
       </c>
       <c r="C1991" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1991" t="n">
         <v>621</v>
@@ -52223,7 +52223,7 @@
         <v>0</v>
       </c>
       <c r="C1992" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1992" t="n">
         <v>625</v>
@@ -52249,7 +52249,7 @@
         <v>0</v>
       </c>
       <c r="C1993" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1993" t="n">
         <v>635</v>
@@ -52275,7 +52275,7 @@
         <v>0</v>
       </c>
       <c r="C1994" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1994" t="n">
         <v>648</v>
@@ -52301,7 +52301,7 @@
         <v>0</v>
       </c>
       <c r="C1995" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1995" t="n">
         <v>653</v>
@@ -52327,7 +52327,7 @@
         <v>0</v>
       </c>
       <c r="C1996" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1996" t="n">
         <v>792</v>
@@ -52353,7 +52353,7 @@
         <v>0</v>
       </c>
       <c r="C1997" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D1997" t="n">
         <v>792</v>
@@ -52379,7 +52379,7 @@
         <v>0</v>
       </c>
       <c r="C1998" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D1998" t="n">
         <v>656</v>
@@ -52405,7 +52405,7 @@
         <v>0</v>
       </c>
       <c r="C1999" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D1999" t="n">
         <v>658</v>
@@ -52431,7 +52431,7 @@
         <v>0</v>
       </c>
       <c r="C2000" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2000" t="n">
         <v>689</v>
@@ -52457,7 +52457,7 @@
         <v>0</v>
       </c>
       <c r="C2001" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2001" t="n">
         <v>664</v>
@@ -52483,7 +52483,7 @@
         <v>0</v>
       </c>
       <c r="C2002" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2002" t="n">
         <v>772</v>
@@ -52509,7 +52509,7 @@
         <v>0</v>
       </c>
       <c r="C2003" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2003" t="n">
         <v>772</v>
@@ -52535,7 +52535,7 @@
         <v>0</v>
       </c>
       <c r="C2004" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2004" t="n">
         <v>669</v>
@@ -52561,7 +52561,7 @@
         <v>0</v>
       </c>
       <c r="C2005" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2005" t="n">
         <v>706</v>
@@ -52587,7 +52587,7 @@
         <v>0</v>
       </c>
       <c r="C2006" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2006" t="n">
         <v>682</v>
@@ -52613,7 +52613,7 @@
         <v>0</v>
       </c>
       <c r="C2007" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2007" t="n">
         <v>684</v>
@@ -52639,7 +52639,7 @@
         <v>0</v>
       </c>
       <c r="C2008" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2008" t="n">
         <v>683</v>
@@ -52665,7 +52665,7 @@
         <v>0</v>
       </c>
       <c r="C2009" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2009" t="n">
         <v>688</v>
@@ -52691,7 +52691,7 @@
         <v>0</v>
       </c>
       <c r="C2010" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2010" t="n">
         <v>680</v>
@@ -52717,7 +52717,7 @@
         <v>0</v>
       </c>
       <c r="C2011" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2011" t="n">
         <v>694</v>
@@ -52743,7 +52743,7 @@
         <v>0</v>
       </c>
       <c r="C2012" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2012" t="n">
         <v>682</v>
@@ -52769,7 +52769,7 @@
         <v>0</v>
       </c>
       <c r="C2013" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2013" t="n">
         <v>685</v>
@@ -52795,7 +52795,7 @@
         <v>0</v>
       </c>
       <c r="C2014" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2014" t="n">
         <v>680</v>
@@ -52821,7 +52821,7 @@
         <v>0</v>
       </c>
       <c r="C2015" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2015" t="n">
         <v>678</v>
@@ -52847,7 +52847,7 @@
         <v>0</v>
       </c>
       <c r="C2016" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2016" t="n">
         <v>678</v>
@@ -52873,7 +52873,7 @@
         <v>0</v>
       </c>
       <c r="C2017" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2017" t="n">
         <v>658</v>
@@ -52899,7 +52899,7 @@
         <v>0</v>
       </c>
       <c r="C2018" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2018" t="n">
         <v>648</v>
@@ -52925,7 +52925,7 @@
         <v>0</v>
       </c>
       <c r="C2019" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2019" t="n">
         <v>613</v>
@@ -52951,7 +52951,7 @@
         <v>0</v>
       </c>
       <c r="C2020" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2020" t="n">
         <v>690</v>
@@ -52977,7 +52977,7 @@
         <v>0</v>
       </c>
       <c r="C2021" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2021" t="n">
         <v>0</v>
@@ -53003,7 +53003,7 @@
         <v>0</v>
       </c>
       <c r="C2022" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2022" t="n">
         <v>598</v>
@@ -53029,7 +53029,7 @@
         <v>0</v>
       </c>
       <c r="C2023" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2023" t="n">
         <v>598</v>
@@ -53055,7 +53055,7 @@
         <v>0</v>
       </c>
       <c r="C2024" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2024" t="n">
         <v>572</v>
@@ -53081,7 +53081,7 @@
         <v>0</v>
       </c>
       <c r="C2025" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2025" t="n">
         <v>572</v>
@@ -53107,7 +53107,7 @@
         <v>0</v>
       </c>
       <c r="C2026" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2026" t="n">
         <v>608</v>
@@ -53133,7 +53133,7 @@
         <v>0</v>
       </c>
       <c r="C2027" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2027" t="n">
         <v>611</v>
@@ -53159,7 +53159,7 @@
         <v>0</v>
       </c>
       <c r="C2028" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2028" t="n">
         <v>621</v>
@@ -53185,7 +53185,7 @@
         <v>0</v>
       </c>
       <c r="C2029" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2029" t="n">
         <v>620</v>
@@ -53211,7 +53211,7 @@
         <v>0</v>
       </c>
       <c r="C2030" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2030" t="n">
         <v>632</v>
@@ -53237,7 +53237,7 @@
         <v>0</v>
       </c>
       <c r="C2031" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2031" t="n">
         <v>640</v>
@@ -53263,7 +53263,7 @@
         <v>0</v>
       </c>
       <c r="C2032" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2032" t="n">
         <v>640</v>
@@ -53289,7 +53289,7 @@
         <v>0</v>
       </c>
       <c r="C2033" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2033" t="n">
         <v>644</v>
@@ -53315,7 +53315,7 @@
         <v>0</v>
       </c>
       <c r="C2034" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2034" t="n">
         <v>633</v>
@@ -53341,7 +53341,7 @@
         <v>0</v>
       </c>
       <c r="C2035" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2035" t="n">
         <v>631</v>
@@ -53367,7 +53367,7 @@
         <v>0</v>
       </c>
       <c r="C2036" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2036" t="n">
         <v>627</v>
@@ -53393,7 +53393,7 @@
         <v>0</v>
       </c>
       <c r="C2037" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2037" t="n">
         <v>621</v>
@@ -53419,7 +53419,7 @@
         <v>0</v>
       </c>
       <c r="C2038" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2038" t="n">
         <v>630</v>
@@ -53445,7 +53445,7 @@
         <v>0</v>
       </c>
       <c r="C2039" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2039" t="n">
         <v>623</v>
@@ -53471,7 +53471,7 @@
         <v>0</v>
       </c>
       <c r="C2040" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2040" t="n">
         <v>599</v>
@@ -53497,7 +53497,7 @@
         <v>0</v>
       </c>
       <c r="C2041" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2041" t="n">
         <v>579</v>
@@ -53523,7 +53523,7 @@
         <v>0</v>
       </c>
       <c r="C2042" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2042" t="n">
         <v>598</v>
@@ -53549,7 +53549,7 @@
         <v>0</v>
       </c>
       <c r="C2043" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2043" t="n">
         <v>584</v>
@@ -53575,7 +53575,7 @@
         <v>0</v>
       </c>
       <c r="C2044" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2044" t="n">
         <v>587</v>
@@ -53601,7 +53601,7 @@
         <v>0</v>
       </c>
       <c r="C2045" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2045" t="n">
         <v>521</v>
@@ -53627,7 +53627,7 @@
         <v>0</v>
       </c>
       <c r="C2046" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2046" t="n">
         <v>653</v>
@@ -53653,7 +53653,7 @@
         <v>0</v>
       </c>
       <c r="C2047" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2047" t="n">
         <v>624</v>
@@ -53679,7 +53679,7 @@
         <v>0</v>
       </c>
       <c r="C2048" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2048" t="n">
         <v>631</v>
@@ -53705,7 +53705,7 @@
         <v>0</v>
       </c>
       <c r="C2049" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2049" t="n">
         <v>652</v>
@@ -53731,7 +53731,7 @@
         <v>0</v>
       </c>
       <c r="C2050" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2050" t="n">
         <v>620</v>
@@ -53757,7 +53757,7 @@
         <v>0</v>
       </c>
       <c r="C2051" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2051" t="n">
         <v>640</v>
@@ -53783,7 +53783,7 @@
         <v>0</v>
       </c>
       <c r="C2052" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2052" t="n">
         <v>660</v>
@@ -53809,7 +53809,7 @@
         <v>0</v>
       </c>
       <c r="C2053" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2053" t="n">
         <v>657</v>
@@ -53835,7 +53835,7 @@
         <v>0</v>
       </c>
       <c r="C2054" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2054" t="n">
         <v>657</v>
@@ -53861,7 +53861,7 @@
         <v>0</v>
       </c>
       <c r="C2055" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2055" t="n">
         <v>612</v>
@@ -53887,7 +53887,7 @@
         <v>0</v>
       </c>
       <c r="C2056" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2056" t="n">
         <v>628</v>
@@ -53913,7 +53913,7 @@
         <v>0</v>
       </c>
       <c r="C2057" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2057" t="n">
         <v>608</v>
@@ -53939,7 +53939,7 @@
         <v>0</v>
       </c>
       <c r="C2058" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2058" t="n">
         <v>637</v>
@@ -53965,7 +53965,7 @@
         <v>0</v>
       </c>
       <c r="C2059" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2059" t="n">
         <v>647</v>
@@ -53991,7 +53991,7 @@
         <v>0</v>
       </c>
       <c r="C2060" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2060" t="n">
         <v>629</v>
@@ -54017,7 +54017,7 @@
         <v>0</v>
       </c>
       <c r="C2061" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2061" t="n">
         <v>610</v>
@@ -54043,7 +54043,7 @@
         <v>0</v>
       </c>
       <c r="C2062" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2062" t="n">
         <v>594</v>
@@ -54069,7 +54069,7 @@
         <v>0</v>
       </c>
       <c r="C2063" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2063" t="n">
         <v>737</v>
@@ -54095,7 +54095,7 @@
         <v>0</v>
       </c>
       <c r="C2064" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2064" t="n">
         <v>716</v>
@@ -54121,7 +54121,7 @@
         <v>0</v>
       </c>
       <c r="C2065" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2065" t="n">
         <v>742</v>
@@ -54147,7 +54147,7 @@
         <v>0</v>
       </c>
       <c r="C2066" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2066" t="n">
         <v>738</v>
@@ -54173,7 +54173,7 @@
         <v>0</v>
       </c>
       <c r="C2067" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2067" t="n">
         <v>743</v>
@@ -54199,7 +54199,7 @@
         <v>0</v>
       </c>
       <c r="C2068" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2068" t="n">
         <v>738</v>
@@ -54225,7 +54225,7 @@
         <v>0</v>
       </c>
       <c r="C2069" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2069" t="n">
         <v>0</v>
@@ -54251,7 +54251,7 @@
         <v>0</v>
       </c>
       <c r="C2070" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2070" t="n">
         <v>714</v>
@@ -54277,7 +54277,7 @@
         <v>0</v>
       </c>
       <c r="C2071" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2071" t="n">
         <v>750</v>
@@ -54303,7 +54303,7 @@
         <v>0</v>
       </c>
       <c r="C2072" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2072" t="n">
         <v>744</v>
@@ -54329,7 +54329,7 @@
         <v>0</v>
       </c>
       <c r="C2073" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2073" t="n">
         <v>682</v>
@@ -54355,7 +54355,7 @@
         <v>0</v>
       </c>
       <c r="C2074" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2074" t="n">
         <v>652</v>
@@ -54381,7 +54381,7 @@
         <v>0</v>
       </c>
       <c r="C2075" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2075" t="n">
         <v>609</v>
@@ -54407,7 +54407,7 @@
         <v>0</v>
       </c>
       <c r="C2076" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2076" t="n">
         <v>705</v>
@@ -54433,7 +54433,7 @@
         <v>0</v>
       </c>
       <c r="C2077" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2077" t="n">
         <v>675</v>
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="C2078" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2078" t="n">
         <v>674</v>
@@ -54485,7 +54485,7 @@
         <v>0</v>
       </c>
       <c r="C2079" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2079" t="n">
         <v>652</v>
@@ -54511,7 +54511,7 @@
         <v>0</v>
       </c>
       <c r="C2080" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2080" t="n">
         <v>658</v>
@@ -54537,7 +54537,7 @@
         <v>0</v>
       </c>
       <c r="C2081" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2081" t="n">
         <v>678</v>
@@ -54563,7 +54563,7 @@
         <v>0</v>
       </c>
       <c r="C2082" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2082" t="n">
         <v>693</v>
@@ -54589,7 +54589,7 @@
         <v>0</v>
       </c>
       <c r="C2083" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2083" t="n">
         <v>635</v>
@@ -54615,7 +54615,7 @@
         <v>0</v>
       </c>
       <c r="C2084" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2084" t="n">
         <v>644</v>
@@ -54641,7 +54641,7 @@
         <v>0</v>
       </c>
       <c r="C2085" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2085" t="n">
         <v>652</v>
@@ -54667,7 +54667,7 @@
         <v>0</v>
       </c>
       <c r="C2086" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2086" t="n">
         <v>658</v>
@@ -54693,7 +54693,7 @@
         <v>0</v>
       </c>
       <c r="C2087" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2087" t="n">
         <v>608</v>
@@ -54719,7 +54719,7 @@
         <v>0</v>
       </c>
       <c r="C2088" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2088" t="n">
         <v>609</v>
@@ -54745,7 +54745,7 @@
         <v>0</v>
       </c>
       <c r="C2089" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2089" t="n">
         <v>628</v>
@@ -54771,7 +54771,7 @@
         <v>0</v>
       </c>
       <c r="C2090" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2090" t="n">
         <v>636</v>
@@ -54797,7 +54797,7 @@
         <v>0</v>
       </c>
       <c r="C2091" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2091" t="n">
         <v>697</v>
@@ -54823,7 +54823,7 @@
         <v>0</v>
       </c>
       <c r="C2092" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2092" t="n">
         <v>695</v>
@@ -54849,7 +54849,7 @@
         <v>0</v>
       </c>
       <c r="C2093" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2093" t="n">
         <v>659</v>
@@ -54875,7 +54875,7 @@
         <v>0</v>
       </c>
       <c r="C2094" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2094" t="n">
         <v>683</v>
@@ -54901,7 +54901,7 @@
         <v>0</v>
       </c>
       <c r="C2095" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2095" t="n">
         <v>663</v>
@@ -54927,7 +54927,7 @@
         <v>0</v>
       </c>
       <c r="C2096" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2096" t="n">
         <v>659</v>
@@ -54953,7 +54953,7 @@
         <v>0</v>
       </c>
       <c r="C2097" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2097" t="n">
         <v>654</v>
@@ -54979,7 +54979,7 @@
         <v>0</v>
       </c>
       <c r="C2098" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2098" t="n">
         <v>657</v>
@@ -55005,7 +55005,7 @@
         <v>0</v>
       </c>
       <c r="C2099" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2099" t="n">
         <v>646</v>
@@ -55031,7 +55031,7 @@
         <v>0</v>
       </c>
       <c r="C2100" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2100" t="n">
         <v>660</v>
@@ -55057,7 +55057,7 @@
         <v>0</v>
       </c>
       <c r="C2101" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2101" t="n">
         <v>608</v>
@@ -55083,7 +55083,7 @@
         <v>0</v>
       </c>
       <c r="C2102" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2102" t="n">
         <v>615</v>
@@ -55109,7 +55109,7 @@
         <v>0</v>
       </c>
       <c r="C2103" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2103" t="n">
         <v>667</v>
@@ -55135,7 +55135,7 @@
         <v>0</v>
       </c>
       <c r="C2104" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2104" t="n">
         <v>641</v>
@@ -55161,7 +55161,7 @@
         <v>0</v>
       </c>
       <c r="C2105" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2105" t="n">
         <v>597</v>
@@ -55187,7 +55187,7 @@
         <v>0</v>
       </c>
       <c r="C2106" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2106" t="n">
         <v>643</v>
@@ -55213,7 +55213,7 @@
         <v>0</v>
       </c>
       <c r="C2107" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2107" t="n">
         <v>682</v>
@@ -55239,7 +55239,7 @@
         <v>0</v>
       </c>
       <c r="C2108" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2108" t="n">
         <v>624</v>
@@ -55265,7 +55265,7 @@
         <v>0</v>
       </c>
       <c r="C2109" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2109" t="n">
         <v>568</v>
@@ -55291,7 +55291,7 @@
         <v>0</v>
       </c>
       <c r="C2110" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2110" t="n">
         <v>570</v>
@@ -55317,7 +55317,7 @@
         <v>0</v>
       </c>
       <c r="C2111" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2111" t="n">
         <v>691</v>
@@ -55343,7 +55343,7 @@
         <v>0</v>
       </c>
       <c r="C2112" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2112" t="n">
         <v>700</v>
@@ -55369,7 +55369,7 @@
         <v>0</v>
       </c>
       <c r="C2113" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2113" t="n">
         <v>698</v>
@@ -55395,7 +55395,7 @@
         <v>0</v>
       </c>
       <c r="C2114" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2114" t="n">
         <v>634</v>
@@ -55421,7 +55421,7 @@
         <v>0</v>
       </c>
       <c r="C2115" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2115" t="n">
         <v>652</v>
@@ -55447,7 +55447,7 @@
         <v>0</v>
       </c>
       <c r="C2116" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2116" t="n">
         <v>717</v>
@@ -55473,7 +55473,7 @@
         <v>0</v>
       </c>
       <c r="C2117" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2117" t="n">
         <v>694</v>
@@ -55499,7 +55499,7 @@
         <v>0</v>
       </c>
       <c r="C2118" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2118" t="n">
         <v>688</v>
@@ -55525,7 +55525,7 @@
         <v>0</v>
       </c>
       <c r="C2119" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2119" t="n">
         <v>675</v>
@@ -55551,7 +55551,7 @@
         <v>0</v>
       </c>
       <c r="C2120" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2120" t="n">
         <v>648</v>
@@ -55577,7 +55577,7 @@
         <v>0</v>
       </c>
       <c r="C2121" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2121" t="n">
         <v>633</v>
@@ -55603,7 +55603,7 @@
         <v>0</v>
       </c>
       <c r="C2122" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2122" t="n">
         <v>633</v>
@@ -55629,7 +55629,7 @@
         <v>0</v>
       </c>
       <c r="C2123" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2123" t="n">
         <v>582</v>
@@ -55655,7 +55655,7 @@
         <v>0</v>
       </c>
       <c r="C2124" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D2124" t="n">
         <v>599</v>
@@ -55681,7 +55681,7 @@
         <v>0</v>
       </c>
       <c r="C2125" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2125" t="n">
         <v>675</v>
@@ -55707,7 +55707,7 @@
         <v>0</v>
       </c>
       <c r="C2126" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2126" t="n">
         <v>660</v>
@@ -55733,7 +55733,7 @@
         <v>0</v>
       </c>
       <c r="C2127" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2127" t="n">
         <v>665</v>
@@ -55759,7 +55759,7 @@
         <v>0</v>
       </c>
       <c r="C2128" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2128" t="n">
         <v>658</v>
@@ -55785,7 +55785,7 @@
         <v>0</v>
       </c>
       <c r="C2129" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2129" t="n">
         <v>633</v>
@@ -55811,7 +55811,7 @@
         <v>0</v>
       </c>
       <c r="C2130" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2130" t="n">
         <v>534</v>
@@ -55837,7 +55837,7 @@
         <v>0</v>
       </c>
       <c r="C2131" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2131" t="n">
         <v>572</v>
@@ -55863,7 +55863,7 @@
         <v>0</v>
       </c>
       <c r="C2132" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2132" t="n">
         <v>558</v>
@@ -55889,7 +55889,7 @@
         <v>0</v>
       </c>
       <c r="C2133" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2133" t="n">
         <v>565</v>
@@ -55915,7 +55915,7 @@
         <v>0</v>
       </c>
       <c r="C2134" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2134" t="n">
         <v>573</v>
@@ -55941,7 +55941,7 @@
         <v>0</v>
       </c>
       <c r="C2135" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2135" t="n">
         <v>571</v>
@@ -55967,7 +55967,7 @@
         <v>0</v>
       </c>
       <c r="C2136" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2136" t="n">
         <v>588</v>
@@ -55993,7 +55993,7 @@
         <v>0</v>
       </c>
       <c r="C2137" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2137" t="n">
         <v>532</v>
@@ -56019,7 +56019,7 @@
         <v>0</v>
       </c>
       <c r="C2138" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2138" t="n">
         <v>625</v>
@@ -56045,7 +56045,7 @@
         <v>0</v>
       </c>
       <c r="C2139" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D2139" t="n">
         <v>631</v>
@@ -56071,7 +56071,7 @@
         <v>0</v>
       </c>
       <c r="C2140" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2140" t="n">
         <v>692</v>
@@ -56097,7 +56097,7 @@
         <v>0</v>
       </c>
       <c r="C2141" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2141" t="n">
         <v>669</v>
@@ -56123,7 +56123,7 @@
         <v>0</v>
       </c>
       <c r="C2142" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2142" t="n">
         <v>618</v>
@@ -56149,7 +56149,7 @@
         <v>0</v>
       </c>
       <c r="C2143" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2143" t="n">
         <v>576</v>
@@ -56175,7 +56175,7 @@
         <v>0</v>
       </c>
       <c r="C2144" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2144" t="n">
         <v>580</v>
@@ -56201,7 +56201,7 @@
         <v>0</v>
       </c>
       <c r="C2145" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2145" t="n">
         <v>581</v>
@@ -56227,7 +56227,7 @@
         <v>0</v>
       </c>
       <c r="C2146" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2146" t="n">
         <v>572</v>
@@ -56253,7 +56253,7 @@
         <v>0</v>
       </c>
       <c r="C2147" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2147" t="n">
         <v>645</v>
@@ -56279,7 +56279,7 @@
         <v>0</v>
       </c>
       <c r="C2148" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2148" t="n">
         <v>605</v>
@@ -56305,7 +56305,7 @@
         <v>0</v>
       </c>
       <c r="C2149" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2149" t="n">
         <v>589</v>
@@ -56331,7 +56331,7 @@
         <v>0</v>
       </c>
       <c r="C2150" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2150" t="n">
         <v>602</v>
@@ -56357,7 +56357,7 @@
         <v>0</v>
       </c>
       <c r="C2151" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2151" t="n">
         <v>574</v>
@@ -56383,7 +56383,7 @@
         <v>0</v>
       </c>
       <c r="C2152" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2152" t="n">
         <v>581</v>
@@ -56409,7 +56409,7 @@
         <v>0</v>
       </c>
       <c r="C2153" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2153" t="n">
         <v>598</v>
@@ -56435,7 +56435,7 @@
         <v>0</v>
       </c>
       <c r="C2154" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2154" t="n">
         <v>656</v>
@@ -56461,7 +56461,7 @@
         <v>0</v>
       </c>
       <c r="C2155" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2155" t="n">
         <v>678</v>
@@ -56487,7 +56487,7 @@
         <v>0</v>
       </c>
       <c r="C2156" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2156" t="n">
         <v>656</v>
@@ -56513,7 +56513,7 @@
         <v>0</v>
       </c>
       <c r="C2157" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2157" t="n">
         <v>630</v>
@@ -56539,7 +56539,7 @@
         <v>0</v>
       </c>
       <c r="C2158" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2158" t="n">
         <v>633</v>
@@ -56565,7 +56565,7 @@
         <v>0</v>
       </c>
       <c r="C2159" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2159" t="n">
         <v>635</v>
@@ -56591,7 +56591,7 @@
         <v>0</v>
       </c>
       <c r="C2160" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2160" t="n">
         <v>636</v>
@@ -56617,7 +56617,7 @@
         <v>0</v>
       </c>
       <c r="C2161" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2161" t="n">
         <v>641</v>
@@ -56643,7 +56643,7 @@
         <v>0</v>
       </c>
       <c r="C2162" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2162" t="n">
         <v>641</v>
@@ -56669,7 +56669,7 @@
         <v>0</v>
       </c>
       <c r="C2163" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2163" t="n">
         <v>523</v>
@@ -56695,7 +56695,7 @@
         <v>0</v>
       </c>
       <c r="C2164" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2164" t="n">
         <v>416</v>
@@ -56721,7 +56721,7 @@
         <v>0</v>
       </c>
       <c r="C2165" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2165" t="n">
         <v>404</v>
@@ -56747,7 +56747,7 @@
         <v>0</v>
       </c>
       <c r="C2166" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2166" t="n">
         <v>661</v>
@@ -56773,7 +56773,7 @@
         <v>0</v>
       </c>
       <c r="C2167" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2167" t="n">
         <v>646</v>
@@ -56799,7 +56799,7 @@
         <v>0</v>
       </c>
       <c r="C2168" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2168" t="n">
         <v>704</v>
@@ -56825,7 +56825,7 @@
         <v>0</v>
       </c>
       <c r="C2169" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2169" t="n">
         <v>592</v>
@@ -56851,7 +56851,7 @@
         <v>0</v>
       </c>
       <c r="C2170" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2170" t="n">
         <v>649</v>
@@ -56877,7 +56877,7 @@
         <v>0</v>
       </c>
       <c r="C2171" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2171" t="n">
         <v>554</v>
@@ -56903,7 +56903,7 @@
         <v>0</v>
       </c>
       <c r="C2172" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2172" t="n">
         <v>581</v>
@@ -56929,7 +56929,7 @@
         <v>0</v>
       </c>
       <c r="C2173" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2173" t="n">
         <v>622</v>
@@ -56955,7 +56955,7 @@
         <v>0</v>
       </c>
       <c r="C2174" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2174" t="n">
         <v>517</v>
@@ -56981,7 +56981,7 @@
         <v>0</v>
       </c>
       <c r="C2175" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2175" t="n">
         <v>533</v>
@@ -57007,7 +57007,7 @@
         <v>0</v>
       </c>
       <c r="C2176" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2176" t="n">
         <v>543</v>
@@ -57033,7 +57033,7 @@
         <v>0</v>
       </c>
       <c r="C2177" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2177" t="n">
         <v>562</v>
@@ -57059,7 +57059,7 @@
         <v>0</v>
       </c>
       <c r="C2178" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2178" t="n">
         <v>543</v>
@@ -57085,7 +57085,7 @@
         <v>0</v>
       </c>
       <c r="C2179" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2179" t="n">
         <v>543</v>
@@ -57111,7 +57111,7 @@
         <v>0</v>
       </c>
       <c r="C2180" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2180" t="n">
         <v>687</v>
@@ -57137,7 +57137,7 @@
         <v>0</v>
       </c>
       <c r="C2181" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2181" t="n">
         <v>714</v>
@@ -57163,7 +57163,7 @@
         <v>0</v>
       </c>
       <c r="C2182" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2182" t="n">
         <v>716</v>
@@ -57189,7 +57189,7 @@
         <v>0</v>
       </c>
       <c r="C2183" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2183" t="n">
         <v>689</v>
@@ -57215,7 +57215,7 @@
         <v>0</v>
       </c>
       <c r="C2184" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2184" t="n">
         <v>673</v>
@@ -57241,7 +57241,7 @@
         <v>0</v>
       </c>
       <c r="C2185" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2185" t="n">
         <v>692</v>
@@ -57267,7 +57267,7 @@
         <v>0</v>
       </c>
       <c r="C2186" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2186" t="n">
         <v>680</v>
@@ -57293,7 +57293,7 @@
         <v>0</v>
       </c>
       <c r="C2187" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2187" t="n">
         <v>669</v>
@@ -57319,7 +57319,7 @@
         <v>0</v>
       </c>
       <c r="C2188" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2188" t="n">
         <v>664</v>
@@ -57345,7 +57345,7 @@
         <v>0</v>
       </c>
       <c r="C2189" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2189" t="n">
         <v>680</v>
@@ -57371,7 +57371,7 @@
         <v>0</v>
       </c>
       <c r="C2190" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2190" t="n">
         <v>666</v>
@@ -57397,7 +57397,7 @@
         <v>0</v>
       </c>
       <c r="C2191" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2191" t="n">
         <v>649</v>
@@ -57423,7 +57423,7 @@
         <v>0</v>
       </c>
       <c r="C2192" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2192" t="n">
         <v>670</v>
@@ -57449,7 +57449,7 @@
         <v>0</v>
       </c>
       <c r="C2193" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2193" t="n">
         <v>677</v>
@@ -57475,7 +57475,7 @@
         <v>0</v>
       </c>
       <c r="C2194" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2194" t="n">
         <v>672</v>
@@ -57501,7 +57501,7 @@
         <v>0</v>
       </c>
       <c r="C2195" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2195" t="n">
         <v>673</v>
@@ -57527,7 +57527,7 @@
         <v>0</v>
       </c>
       <c r="C2196" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2196" t="n">
         <v>663</v>
@@ -57553,7 +57553,7 @@
         <v>0</v>
       </c>
       <c r="C2197" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2197" t="n">
         <v>766</v>
@@ -57579,7 +57579,7 @@
         <v>0</v>
       </c>
       <c r="C2198" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2198" t="n">
         <v>766</v>
@@ -57605,7 +57605,7 @@
         <v>0</v>
       </c>
       <c r="C2199" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2199" t="n">
         <v>709</v>
@@ -57631,7 +57631,7 @@
         <v>0</v>
       </c>
       <c r="C2200" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2200" t="n">
         <v>703</v>
@@ -57657,7 +57657,7 @@
         <v>0</v>
       </c>
       <c r="C2201" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2201" t="n">
         <v>727</v>
@@ -57683,7 +57683,7 @@
         <v>0</v>
       </c>
       <c r="C2202" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2202" t="n">
         <v>672</v>
@@ -57709,7 +57709,7 @@
         <v>0</v>
       </c>
       <c r="C2203" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2203" t="n">
         <v>564</v>
@@ -57735,7 +57735,7 @@
         <v>0</v>
       </c>
       <c r="C2204" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2204" t="n">
         <v>592</v>
@@ -57761,7 +57761,7 @@
         <v>0</v>
       </c>
       <c r="C2205" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2205" t="n">
         <v>589</v>
@@ -57787,7 +57787,7 @@
         <v>0</v>
       </c>
       <c r="C2206" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2206" t="n">
         <v>610</v>
@@ -57813,7 +57813,7 @@
         <v>0</v>
       </c>
       <c r="C2207" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2207" t="n">
         <v>597</v>
@@ -57839,7 +57839,7 @@
         <v>0</v>
       </c>
       <c r="C2208" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2208" t="n">
         <v>544</v>
@@ -57865,7 +57865,7 @@
         <v>0</v>
       </c>
       <c r="C2209" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2209" t="n">
         <v>562</v>
@@ -57891,7 +57891,7 @@
         <v>0</v>
       </c>
       <c r="C2210" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2210" t="n">
         <v>564</v>
@@ -57917,7 +57917,7 @@
         <v>0</v>
       </c>
       <c r="C2211" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2211" t="n">
         <v>568</v>
@@ -57943,7 +57943,7 @@
         <v>0</v>
       </c>
       <c r="C2212" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2212" t="n">
         <v>577</v>
@@ -57969,7 +57969,7 @@
         <v>0</v>
       </c>
       <c r="C2213" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2213" t="n">
         <v>568</v>
@@ -57995,7 +57995,7 @@
         <v>0</v>
       </c>
       <c r="C2214" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2214" t="n">
         <v>579</v>
@@ -58021,7 +58021,7 @@
         <v>0</v>
       </c>
       <c r="C2215" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2215" t="n">
         <v>563</v>
@@ -58047,7 +58047,7 @@
         <v>0</v>
       </c>
       <c r="C2216" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2216" t="n">
         <v>554</v>
@@ -58073,7 +58073,7 @@
         <v>0</v>
       </c>
       <c r="C2217" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2217" t="n">
         <v>580</v>
@@ -58099,7 +58099,7 @@
         <v>0</v>
       </c>
       <c r="C2218" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2218" t="n">
         <v>559</v>
@@ -58125,7 +58125,7 @@
         <v>0</v>
       </c>
       <c r="C2219" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2219" t="n">
         <v>471</v>
@@ -58151,7 +58151,7 @@
         <v>0</v>
       </c>
       <c r="C2220" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2220" t="n">
         <v>461</v>
@@ -58177,7 +58177,7 @@
         <v>0</v>
       </c>
       <c r="C2221" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2221" t="n">
         <v>496</v>
@@ -58203,7 +58203,7 @@
         <v>0</v>
       </c>
       <c r="C2222" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2222" t="n">
         <v>509</v>
@@ -58229,7 +58229,7 @@
         <v>0</v>
       </c>
       <c r="C2223" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2223" t="n">
         <v>509</v>
@@ -58255,7 +58255,7 @@
         <v>0</v>
       </c>
       <c r="C2224" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2224" t="n">
         <v>521</v>
@@ -58281,7 +58281,7 @@
         <v>0</v>
       </c>
       <c r="C2225" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2225" t="n">
         <v>551</v>
@@ -58307,7 +58307,7 @@
         <v>0</v>
       </c>
       <c r="C2226" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2226" t="n">
         <v>556</v>
@@ -58333,7 +58333,7 @@
         <v>0</v>
       </c>
       <c r="C2227" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2227" t="n">
         <v>500</v>
@@ -58359,7 +58359,7 @@
         <v>0</v>
       </c>
       <c r="C2228" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D2228" t="n">
         <v>438</v>
@@ -58385,7 +58385,7 @@
         <v>0</v>
       </c>
       <c r="C2229" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2229" t="n">
         <v>622</v>
@@ -58411,7 +58411,7 @@
         <v>0</v>
       </c>
       <c r="C2230" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2230" t="n">
         <v>693</v>
@@ -58437,7 +58437,7 @@
         <v>0</v>
       </c>
       <c r="C2231" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2231" t="n">
         <v>614</v>
@@ -58463,7 +58463,7 @@
         <v>0</v>
       </c>
       <c r="C2232" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2232" t="n">
         <v>658</v>
@@ -58489,7 +58489,7 @@
         <v>0</v>
       </c>
       <c r="C2233" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2233" t="n">
         <v>629</v>
@@ -58515,7 +58515,7 @@
         <v>0</v>
       </c>
       <c r="C2234" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2234" t="n">
         <v>603</v>
@@ -58541,7 +58541,7 @@
         <v>0</v>
       </c>
       <c r="C2235" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2235" t="n">
         <v>613</v>
@@ -58567,7 +58567,7 @@
         <v>0</v>
       </c>
       <c r="C2236" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2236" t="n">
         <v>608</v>
@@ -58593,7 +58593,7 @@
         <v>0</v>
       </c>
       <c r="C2237" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2237" t="n">
         <v>539</v>
@@ -58619,7 +58619,7 @@
         <v>0</v>
       </c>
       <c r="C2238" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2238" t="n">
         <v>481</v>
@@ -58645,7 +58645,7 @@
         <v>0</v>
       </c>
       <c r="C2239" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2239" t="n">
         <v>437</v>
@@ -58671,7 +58671,7 @@
         <v>0</v>
       </c>
       <c r="C2240" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2240" t="n">
         <v>479</v>
@@ -58697,7 +58697,7 @@
         <v>0</v>
       </c>
       <c r="C2241" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2241" t="n">
         <v>466</v>
@@ -58723,7 +58723,7 @@
         <v>0</v>
       </c>
       <c r="C2242" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2242" t="n">
         <v>466</v>
@@ -58749,7 +58749,7 @@
         <v>0</v>
       </c>
       <c r="C2243" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2243" t="n">
         <v>591</v>
@@ -58775,7 +58775,7 @@
         <v>0</v>
       </c>
       <c r="C2244" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2244" t="n">
         <v>587</v>
@@ -58801,7 +58801,7 @@
         <v>0</v>
       </c>
       <c r="C2245" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2245" t="n">
         <v>567</v>
@@ -58827,7 +58827,7 @@
         <v>0</v>
       </c>
       <c r="C2246" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2246" t="n">
         <v>609</v>
@@ -58853,7 +58853,7 @@
         <v>0</v>
       </c>
       <c r="C2247" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2247" t="n">
         <v>606</v>
@@ -58879,7 +58879,7 @@
         <v>0</v>
       </c>
       <c r="C2248" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2248" t="n">
         <v>568</v>
@@ -58905,7 +58905,7 @@
         <v>0</v>
       </c>
       <c r="C2249" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2249" t="n">
         <v>566</v>
@@ -58931,7 +58931,7 @@
         <v>0</v>
       </c>
       <c r="C2250" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2250" t="n">
         <v>557</v>
@@ -58957,7 +58957,7 @@
         <v>0</v>
       </c>
       <c r="C2251" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2251" t="n">
         <v>549</v>
@@ -58983,7 +58983,7 @@
         <v>0</v>
       </c>
       <c r="C2252" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2252" t="n">
         <v>549</v>
@@ -59009,7 +59009,7 @@
         <v>0</v>
       </c>
       <c r="C2253" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2253" t="n">
         <v>515</v>
@@ -59035,7 +59035,7 @@
         <v>0</v>
       </c>
       <c r="C2254" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2254" t="n">
         <v>414</v>
@@ -59061,7 +59061,7 @@
         <v>0</v>
       </c>
       <c r="C2255" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2255" t="n">
         <v>390</v>
@@ -59087,7 +59087,7 @@
         <v>0</v>
       </c>
       <c r="C2256" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2256" t="n">
         <v>422</v>
@@ -59113,7 +59113,7 @@
         <v>0</v>
       </c>
       <c r="C2257" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2257" t="n">
         <v>678</v>
@@ -59139,7 +59139,7 @@
         <v>0</v>
       </c>
       <c r="C2258" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2258" t="n">
         <v>639</v>
@@ -59165,7 +59165,7 @@
         <v>0</v>
       </c>
       <c r="C2259" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D2259" t="n">
         <v>631</v>
@@ -59191,7 +59191,7 @@
         <v>0</v>
       </c>
       <c r="C2260" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2260" t="n">
         <v>652</v>
@@ -59217,7 +59217,7 @@
         <v>0</v>
       </c>
       <c r="C2261" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2261" t="n">
         <v>655</v>
@@ -59243,7 +59243,7 @@
         <v>0</v>
       </c>
       <c r="C2262" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D2262" t="n">
         <v>646</v>
@@ -59269,7 +59269,7 @@
         <v>0</v>
       </c>
       <c r="C2263" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2263" t="n">
         <v>631</v>
@@ -59295,7 +59295,7 @@
         <v>0</v>
       </c>
       <c r="C2264" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2264" t="n">
         <v>604</v>
@@ -59321,7 +59321,7 @@
         <v>0</v>
       </c>
       <c r="C2265" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2265" t="n">
         <v>527</v>
@@ -59347,7 +59347,7 @@
         <v>0</v>
       </c>
       <c r="C2266" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2266" t="n">
         <v>513</v>
@@ -59373,7 +59373,7 @@
         <v>0</v>
       </c>
       <c r="C2267" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2267" t="n">
         <v>497</v>
@@ -59399,7 +59399,7 @@
         <v>0</v>
       </c>
       <c r="C2268" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2268" t="n">
         <v>568</v>
@@ -59425,7 +59425,7 @@
         <v>0</v>
       </c>
       <c r="C2269" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2269" t="n">
         <v>491</v>
@@ -59451,7 +59451,7 @@
         <v>0</v>
       </c>
       <c r="C2270" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2270" t="n">
         <v>523</v>
@@ -59477,7 +59477,7 @@
         <v>0</v>
       </c>
       <c r="C2271" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2271" t="n">
         <v>563</v>
@@ -59503,7 +59503,7 @@
         <v>0</v>
       </c>
       <c r="C2272" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2272" t="n">
         <v>510</v>
@@ -59529,7 +59529,7 @@
         <v>0</v>
       </c>
       <c r="C2273" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2273" t="n">
         <v>501</v>
@@ -59555,7 +59555,7 @@
         <v>0</v>
       </c>
       <c r="C2274" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2274" t="n">
         <v>474</v>
@@ -59581,7 +59581,7 @@
         <v>0</v>
       </c>
       <c r="C2275" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2275" t="n">
         <v>479</v>
@@ -59607,7 +59607,7 @@
         <v>0</v>
       </c>
       <c r="C2276" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2276" t="n">
         <v>488</v>
@@ -59633,7 +59633,7 @@
         <v>0</v>
       </c>
       <c r="C2277" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2277" t="n">
         <v>754</v>
@@ -59659,7 +59659,7 @@
         <v>0</v>
       </c>
       <c r="C2278" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2278" t="n">
         <v>701</v>
@@ -59685,7 +59685,7 @@
         <v>0</v>
       </c>
       <c r="C2279" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2279" t="n">
         <v>660</v>
@@ -59711,7 +59711,7 @@
         <v>0</v>
       </c>
       <c r="C2280" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2280" t="n">
         <v>658</v>
@@ -59737,7 +59737,7 @@
         <v>0</v>
       </c>
       <c r="C2281" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2281" t="n">
         <v>579</v>
@@ -59763,7 +59763,7 @@
         <v>0</v>
       </c>
       <c r="C2282" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2282" t="n">
         <v>588</v>
@@ -59789,7 +59789,7 @@
         <v>0</v>
       </c>
       <c r="C2283" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2283" t="n">
         <v>569</v>
@@ -59815,7 +59815,7 @@
         <v>0</v>
       </c>
       <c r="C2284" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2284" t="n">
         <v>435</v>
@@ -59841,7 +59841,7 @@
         <v>0</v>
       </c>
       <c r="C2285" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2285" t="n">
         <v>421</v>
@@ -59867,7 +59867,7 @@
         <v>0</v>
       </c>
       <c r="C2286" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2286" t="n">
         <v>415</v>
@@ -59893,7 +59893,7 @@
         <v>0</v>
       </c>
       <c r="C2287" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2287" t="n">
         <v>361</v>
@@ -59919,7 +59919,7 @@
         <v>0</v>
       </c>
       <c r="C2288" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2288" t="n">
         <v>392</v>
@@ -59945,7 +59945,7 @@
         <v>0</v>
       </c>
       <c r="C2289" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2289" t="n">
         <v>588</v>
@@ -59971,7 +59971,7 @@
         <v>0</v>
       </c>
       <c r="C2290" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2290" t="n">
         <v>580</v>
@@ -59997,7 +59997,7 @@
         <v>0</v>
       </c>
       <c r="C2291" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2291" t="n">
         <v>567</v>
@@ -60023,7 +60023,7 @@
         <v>0</v>
       </c>
       <c r="C2292" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2292" t="n">
         <v>566</v>
@@ -60049,7 +60049,7 @@
         <v>0</v>
       </c>
       <c r="C2293" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2293" t="n">
         <v>535</v>
@@ -60075,7 +60075,7 @@
         <v>0</v>
       </c>
       <c r="C2294" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2294" t="n">
         <v>587</v>
@@ -60101,7 +60101,7 @@
         <v>0</v>
       </c>
       <c r="C2295" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2295" t="n">
         <v>595</v>
@@ -60127,7 +60127,7 @@
         <v>0</v>
       </c>
       <c r="C2296" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2296" t="n">
         <v>589</v>
@@ -60153,7 +60153,7 @@
         <v>0</v>
       </c>
       <c r="C2297" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2297" t="n">
         <v>588</v>
@@ -60179,7 +60179,7 @@
         <v>0</v>
       </c>
       <c r="C2298" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2298" t="n">
         <v>592</v>
@@ -60205,7 +60205,7 @@
         <v>0</v>
       </c>
       <c r="C2299" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2299" t="n">
         <v>591</v>
@@ -60231,7 +60231,7 @@
         <v>0</v>
       </c>
       <c r="C2300" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2300" t="n">
         <v>587</v>
@@ -60257,7 +60257,7 @@
         <v>0</v>
       </c>
       <c r="C2301" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2301" t="n">
         <v>597</v>
@@ -60283,7 +60283,7 @@
         <v>0</v>
       </c>
       <c r="C2302" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2302" t="n">
         <v>599</v>
@@ -60309,7 +60309,7 @@
         <v>0</v>
       </c>
       <c r="C2303" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2303" t="n">
         <v>599</v>
@@ -60335,7 +60335,7 @@
         <v>0</v>
       </c>
       <c r="C2304" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2304" t="n">
         <v>599</v>
@@ -60361,7 +60361,7 @@
         <v>0</v>
       </c>
       <c r="C2305" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2305" t="n">
         <v>608</v>
@@ -60387,7 +60387,7 @@
         <v>0</v>
       </c>
       <c r="C2306" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2306" t="n">
         <v>599</v>
@@ -60413,7 +60413,7 @@
         <v>0</v>
       </c>
       <c r="C2307" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2307" t="n">
         <v>615</v>
@@ -60439,7 +60439,7 @@
         <v>0</v>
       </c>
       <c r="C2308" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2308" t="n">
         <v>615</v>
@@ -60465,7 +60465,7 @@
         <v>0</v>
       </c>
       <c r="C2309" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2309" t="n">
         <v>616</v>
@@ -60491,7 +60491,7 @@
         <v>0</v>
       </c>
       <c r="C2310" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2310" t="n">
         <v>565</v>
@@ -60517,7 +60517,7 @@
         <v>0</v>
       </c>
       <c r="C2311" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2311" t="n">
         <v>546</v>
@@ -60543,7 +60543,7 @@
         <v>0</v>
       </c>
       <c r="C2312" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2312" t="n">
         <v>547</v>
@@ -60569,7 +60569,7 @@
         <v>0</v>
       </c>
       <c r="C2313" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2313" t="n">
         <v>518</v>
@@ -60595,7 +60595,7 @@
         <v>0</v>
       </c>
       <c r="C2314" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2314" t="n">
         <v>535</v>
@@ -60621,7 +60621,7 @@
         <v>0</v>
       </c>
       <c r="C2315" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2315" t="n">
         <v>536</v>
@@ -60647,7 +60647,7 @@
         <v>0</v>
       </c>
       <c r="C2316" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2316" t="n">
         <v>529</v>
@@ -60673,7 +60673,7 @@
         <v>0</v>
       </c>
       <c r="C2317" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2317" t="n">
         <v>533</v>
@@ -60699,7 +60699,7 @@
         <v>0</v>
       </c>
       <c r="C2318" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2318" t="n">
         <v>496</v>
@@ -60725,7 +60725,7 @@
         <v>0</v>
       </c>
       <c r="C2319" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2319" t="n">
         <v>652</v>
@@ -60751,7 +60751,7 @@
         <v>0</v>
       </c>
       <c r="C2320" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2320" t="n">
         <v>644</v>
@@ -60777,7 +60777,7 @@
         <v>0</v>
       </c>
       <c r="C2321" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2321" t="n">
         <v>618</v>
@@ -60803,7 +60803,7 @@
         <v>0</v>
       </c>
       <c r="C2322" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2322" t="n">
         <v>623</v>
@@ -60829,7 +60829,7 @@
         <v>0</v>
       </c>
       <c r="C2323" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2323" t="n">
         <v>608</v>
@@ -60855,7 +60855,7 @@
         <v>0</v>
       </c>
       <c r="C2324" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2324" t="n">
         <v>612</v>
@@ -60881,7 +60881,7 @@
         <v>0</v>
       </c>
       <c r="C2325" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2325" t="n">
         <v>614</v>
@@ -60907,7 +60907,7 @@
         <v>0</v>
       </c>
       <c r="C2326" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2326" t="n">
         <v>605</v>
@@ -60933,7 +60933,7 @@
         <v>0</v>
       </c>
       <c r="C2327" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2327" t="n">
         <v>616</v>
@@ -60959,7 +60959,7 @@
         <v>0</v>
       </c>
       <c r="C2328" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2328" t="n">
         <v>611</v>
@@ -60985,7 +60985,7 @@
         <v>0</v>
       </c>
       <c r="C2329" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2329" t="n">
         <v>727</v>
@@ -61011,7 +61011,7 @@
         <v>0</v>
       </c>
       <c r="C2330" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2330" t="n">
         <v>681</v>
@@ -61037,7 +61037,7 @@
         <v>0</v>
       </c>
       <c r="C2331" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2331" t="n">
         <v>655</v>
@@ -61063,7 +61063,7 @@
         <v>0</v>
       </c>
       <c r="C2332" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2332" t="n">
         <v>591</v>
@@ -61089,7 +61089,7 @@
         <v>0</v>
       </c>
       <c r="C2333" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2333" t="n">
         <v>594</v>
@@ -61115,7 +61115,7 @@
         <v>0</v>
       </c>
       <c r="C2334" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2334" t="n">
         <v>591</v>
@@ -61141,7 +61141,7 @@
         <v>0</v>
       </c>
       <c r="C2335" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2335" t="n">
         <v>533</v>
@@ -61167,7 +61167,7 @@
         <v>0</v>
       </c>
       <c r="C2336" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2336" t="n">
         <v>551</v>
@@ -61193,7 +61193,7 @@
         <v>0</v>
       </c>
       <c r="C2337" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2337" t="n">
         <v>540</v>
@@ -61219,7 +61219,7 @@
         <v>0</v>
       </c>
       <c r="C2338" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2338" t="n">
         <v>524</v>
@@ -61245,7 +61245,7 @@
         <v>0</v>
       </c>
       <c r="C2339" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2339" t="n">
         <v>510</v>
@@ -61271,7 +61271,7 @@
         <v>0</v>
       </c>
       <c r="C2340" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2340" t="n">
         <v>489</v>
@@ -61297,7 +61297,7 @@
         <v>0</v>
       </c>
       <c r="C2341" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2341" t="n">
         <v>616</v>
@@ -61323,7 +61323,7 @@
         <v>0</v>
       </c>
       <c r="C2342" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2342" t="n">
         <v>648</v>
@@ -61349,7 +61349,7 @@
         <v>0</v>
       </c>
       <c r="C2343" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2343" t="n">
         <v>669</v>
@@ -61375,7 +61375,7 @@
         <v>0</v>
       </c>
       <c r="C2344" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2344" t="n">
         <v>643</v>
@@ -61401,7 +61401,7 @@
         <v>0</v>
       </c>
       <c r="C2345" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2345" t="n">
         <v>630</v>
@@ -61427,7 +61427,7 @@
         <v>0</v>
       </c>
       <c r="C2346" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2346" t="n">
         <v>580</v>
@@ -61453,7 +61453,7 @@
         <v>0</v>
       </c>
       <c r="C2347" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2347" t="n">
         <v>589</v>
@@ -61479,7 +61479,7 @@
         <v>0</v>
       </c>
       <c r="C2348" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2348" t="n">
         <v>606</v>
@@ -61505,7 +61505,7 @@
         <v>0</v>
       </c>
       <c r="C2349" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2349" t="n">
         <v>584</v>
@@ -61531,7 +61531,7 @@
         <v>0</v>
       </c>
       <c r="C2350" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2350" t="n">
         <v>563</v>
@@ -61557,7 +61557,7 @@
         <v>0</v>
       </c>
       <c r="C2351" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2351" t="n">
         <v>541</v>
@@ -61583,7 +61583,7 @@
         <v>0</v>
       </c>
       <c r="C2352" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2352" t="n">
         <v>645</v>
@@ -61609,7 +61609,7 @@
         <v>0</v>
       </c>
       <c r="C2353" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2353" t="n">
         <v>572</v>
@@ -61635,7 +61635,7 @@
         <v>0</v>
       </c>
       <c r="C2354" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2354" t="n">
         <v>538</v>
@@ -61661,7 +61661,7 @@
         <v>0</v>
       </c>
       <c r="C2355" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2355" t="n">
         <v>543</v>
@@ -61687,7 +61687,7 @@
         <v>0</v>
       </c>
       <c r="C2356" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2356" t="n">
         <v>603</v>
@@ -61713,7 +61713,7 @@
         <v>0</v>
       </c>
       <c r="C2357" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2357" t="n">
         <v>587</v>
@@ -61739,7 +61739,7 @@
         <v>0</v>
       </c>
       <c r="C2358" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2358" t="n">
         <v>572</v>
@@ -61765,7 +61765,7 @@
         <v>0</v>
       </c>
       <c r="C2359" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2359" t="n">
         <v>594</v>
@@ -61791,7 +61791,7 @@
         <v>0</v>
       </c>
       <c r="C2360" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2360" t="n">
         <v>561</v>
@@ -61817,7 +61817,7 @@
         <v>0</v>
       </c>
       <c r="C2361" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2361" t="n">
         <v>536</v>
@@ -61843,7 +61843,7 @@
         <v>0</v>
       </c>
       <c r="C2362" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2362" t="n">
         <v>535</v>
@@ -61869,7 +61869,7 @@
         <v>0</v>
       </c>
       <c r="C2363" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2363" t="n">
         <v>547</v>
@@ -61895,7 +61895,7 @@
         <v>0</v>
       </c>
       <c r="C2364" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2364" t="n">
         <v>565</v>
@@ -61921,7 +61921,7 @@
         <v>0</v>
       </c>
       <c r="C2365" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2365" t="n">
         <v>529</v>
@@ -61947,7 +61947,7 @@
         <v>0</v>
       </c>
       <c r="C2366" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2366" t="n">
         <v>556</v>
@@ -61973,7 +61973,7 @@
         <v>0</v>
       </c>
       <c r="C2367" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2367" t="n">
         <v>542</v>
@@ -61999,7 +61999,7 @@
         <v>0</v>
       </c>
       <c r="C2368" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2368" t="n">
         <v>638</v>
@@ -62025,7 +62025,7 @@
         <v>0</v>
       </c>
       <c r="C2369" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2369" t="n">
         <v>643</v>
@@ -62051,7 +62051,7 @@
         <v>0</v>
       </c>
       <c r="C2370" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2370" t="n">
         <v>638</v>
@@ -62077,7 +62077,7 @@
         <v>0</v>
       </c>
       <c r="C2371" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2371" t="n">
         <v>649</v>
@@ -62103,7 +62103,7 @@
         <v>0</v>
       </c>
       <c r="C2372" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2372" t="n">
         <v>607</v>
@@ -62129,7 +62129,7 @@
         <v>0</v>
       </c>
       <c r="C2373" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2373" t="n">
         <v>591</v>
@@ -62155,7 +62155,7 @@
         <v>0</v>
       </c>
       <c r="C2374" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2374" t="n">
         <v>591</v>
@@ -62181,7 +62181,7 @@
         <v>0</v>
       </c>
       <c r="C2375" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2375" t="n">
         <v>572</v>
@@ -62207,7 +62207,7 @@
         <v>0</v>
       </c>
       <c r="C2376" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2376" t="n">
         <v>579</v>
@@ -62233,7 +62233,7 @@
         <v>0</v>
       </c>
       <c r="C2377" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2377" t="n">
         <v>579</v>
@@ -62259,7 +62259,7 @@
         <v>0</v>
       </c>
       <c r="C2378" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2378" t="n">
         <v>579</v>
@@ -62285,7 +62285,7 @@
         <v>0</v>
       </c>
       <c r="C2379" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2379" t="n">
         <v>585</v>
@@ -62311,7 +62311,7 @@
         <v>0</v>
       </c>
       <c r="C2380" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2380" t="n">
         <v>595</v>
@@ -62337,7 +62337,7 @@
         <v>0</v>
       </c>
       <c r="C2381" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2381" t="n">
         <v>640</v>
@@ -62363,7 +62363,7 @@
         <v>0</v>
       </c>
       <c r="C2382" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2382" t="n">
         <v>599</v>
@@ -62389,7 +62389,7 @@
         <v>0</v>
       </c>
       <c r="C2383" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2383" t="n">
         <v>605</v>
@@ -62415,7 +62415,7 @@
         <v>0</v>
       </c>
       <c r="C2384" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2384" t="n">
         <v>628</v>
@@ -62441,7 +62441,7 @@
         <v>0</v>
       </c>
       <c r="C2385" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2385" t="n">
         <v>622</v>
@@ -62467,7 +62467,7 @@
         <v>0</v>
       </c>
       <c r="C2386" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2386" t="n">
         <v>637</v>
@@ -62493,7 +62493,7 @@
         <v>0</v>
       </c>
       <c r="C2387" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2387" t="n">
         <v>616</v>
@@ -62519,7 +62519,7 @@
         <v>0</v>
       </c>
       <c r="C2388" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2388" t="n">
         <v>605</v>
@@ -62545,7 +62545,7 @@
         <v>0</v>
       </c>
       <c r="C2389" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2389" t="n">
         <v>601</v>
@@ -62571,7 +62571,7 @@
         <v>0</v>
       </c>
       <c r="C2390" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2390" t="n">
         <v>546</v>
@@ -62597,7 +62597,7 @@
         <v>0</v>
       </c>
       <c r="C2391" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2391" t="n">
         <v>587</v>
@@ -62623,7 +62623,7 @@
         <v>0</v>
       </c>
       <c r="C2392" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2392" t="n">
         <v>604</v>
@@ -62649,7 +62649,7 @@
         <v>0</v>
       </c>
       <c r="C2393" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2393" t="n">
         <v>658</v>
@@ -62675,7 +62675,7 @@
         <v>0</v>
       </c>
       <c r="C2394" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2394" t="n">
         <v>674</v>
@@ -62701,7 +62701,7 @@
         <v>0</v>
       </c>
       <c r="C2395" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2395" t="n">
         <v>631</v>
@@ -62727,7 +62727,7 @@
         <v>0</v>
       </c>
       <c r="C2396" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2396" t="n">
         <v>652</v>
@@ -62753,7 +62753,7 @@
         <v>0</v>
       </c>
       <c r="C2397" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2397" t="n">
         <v>621</v>
@@ -62779,7 +62779,7 @@
         <v>0</v>
       </c>
       <c r="C2398" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2398" t="n">
         <v>645</v>
@@ -62805,7 +62805,7 @@
         <v>0</v>
       </c>
       <c r="C2399" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2399" t="n">
         <v>629</v>
@@ -62831,7 +62831,7 @@
         <v>0</v>
       </c>
       <c r="C2400" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2400" t="n">
         <v>575</v>
@@ -62857,7 +62857,7 @@
         <v>0</v>
       </c>
       <c r="C2401" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2401" t="n">
         <v>671</v>
@@ -62883,7 +62883,7 @@
         <v>0</v>
       </c>
       <c r="C2402" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2402" t="n">
         <v>663</v>
@@ -62909,7 +62909,7 @@
         <v>0</v>
       </c>
       <c r="C2403" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2403" t="n">
         <v>627</v>
@@ -62935,7 +62935,7 @@
         <v>0</v>
       </c>
       <c r="C2404" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2404" t="n">
         <v>614</v>
@@ -62961,7 +62961,7 @@
         <v>0</v>
       </c>
       <c r="C2405" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2405" t="n">
         <v>650</v>
@@ -62987,7 +62987,7 @@
         <v>0</v>
       </c>
       <c r="C2406" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2406" t="n">
         <v>647</v>
@@ -63013,7 +63013,7 @@
         <v>0</v>
       </c>
       <c r="C2407" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2407" t="n">
         <v>647</v>
@@ -63039,7 +63039,7 @@
         <v>0</v>
       </c>
       <c r="C2408" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2408" t="n">
         <v>557</v>
@@ -63065,7 +63065,7 @@
         <v>0</v>
       </c>
       <c r="C2409" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2409" t="n">
         <v>510</v>
@@ -63091,7 +63091,7 @@
         <v>0</v>
       </c>
       <c r="C2410" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2410" t="n">
         <v>586</v>
@@ -63117,7 +63117,7 @@
         <v>0</v>
       </c>
       <c r="C2411" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2411" t="n">
         <v>591</v>
@@ -63143,7 +63143,7 @@
         <v>0</v>
       </c>
       <c r="C2412" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2412" t="n">
         <v>609</v>
@@ -63169,7 +63169,7 @@
         <v>0</v>
       </c>
       <c r="C2413" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2413" t="n">
         <v>637</v>
@@ -63195,7 +63195,7 @@
         <v>0</v>
       </c>
       <c r="C2414" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2414" t="n">
         <v>634</v>
@@ -63221,7 +63221,7 @@
         <v>0</v>
       </c>
       <c r="C2415" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2415" t="n">
         <v>620</v>
@@ -63247,7 +63247,7 @@
         <v>0</v>
       </c>
       <c r="C2416" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2416" t="n">
         <v>599</v>
@@ -63273,7 +63273,7 @@
         <v>0</v>
       </c>
       <c r="C2417" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2417" t="n">
         <v>631</v>
@@ -63299,7 +63299,7 @@
         <v>0</v>
       </c>
       <c r="C2418" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2418" t="n">
         <v>629</v>
@@ -63325,7 +63325,7 @@
         <v>0</v>
       </c>
       <c r="C2419" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2419" t="n">
         <v>619</v>
@@ -63351,7 +63351,7 @@
         <v>0</v>
       </c>
       <c r="C2420" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2420" t="n">
         <v>580</v>
@@ -63377,7 +63377,7 @@
         <v>0</v>
       </c>
       <c r="C2421" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2421" t="n">
         <v>571</v>
@@ -63403,7 +63403,7 @@
         <v>0</v>
       </c>
       <c r="C2422" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2422" t="n">
         <v>587</v>
@@ -63429,7 +63429,7 @@
         <v>0</v>
       </c>
       <c r="C2423" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2423" t="n">
         <v>586</v>
@@ -63455,7 +63455,7 @@
         <v>0</v>
       </c>
       <c r="C2424" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2424" t="n">
         <v>595</v>
@@ -63481,7 +63481,7 @@
         <v>0</v>
       </c>
       <c r="C2425" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2425" t="n">
         <v>578</v>
@@ -63507,7 +63507,7 @@
         <v>0</v>
       </c>
       <c r="C2426" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2426" t="n">
         <v>579</v>
@@ -63533,7 +63533,7 @@
         <v>0</v>
       </c>
       <c r="C2427" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2427" t="n">
         <v>618</v>
@@ -63559,7 +63559,7 @@
         <v>0</v>
       </c>
       <c r="C2428" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2428" t="n">
         <v>664</v>
@@ -63585,7 +63585,7 @@
         <v>0</v>
       </c>
       <c r="C2429" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2429" t="n">
         <v>566</v>
@@ -63611,7 +63611,7 @@
         <v>0</v>
       </c>
       <c r="C2430" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2430" t="n">
         <v>570</v>
@@ -63637,7 +63637,7 @@
         <v>0</v>
       </c>
       <c r="C2431" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D2431" t="n">
         <v>572</v>
@@ -63663,7 +63663,7 @@
         <v>0</v>
       </c>
       <c r="C2432" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2432" t="n">
         <v>617</v>
